--- a/Result_Translator/V1/File/20230507/Af_results_Header.xlsx
+++ b/Result_Translator/V1/File/20230507/Af_results_Header.xlsx
@@ -60,15 +60,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104623</xdr:colOff>
+      <xdr:colOff>130636</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1267430</xdr:rowOff>
+      <xdr:rowOff>1278966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -85,8 +85,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1323823" cy="1267430"/>
+          <a:off x="133350" y="114300"/>
+          <a:ext cx="1216486" cy="1164666"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
